--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0917090572088195</v>
+        <v>0.098742</v>
       </c>
       <c r="H2">
-        <v>0.0917090572088195</v>
+        <v>0.296226</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4941333075334537</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4941333075334537</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.3515708015426</v>
+        <v>18.11506266666667</v>
       </c>
       <c r="N2">
-        <v>17.3515708015426</v>
+        <v>54.345188</v>
       </c>
       <c r="O2">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="P2">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="Q2">
-        <v>1.591296199301552</v>
+        <v>1.788717517832</v>
       </c>
       <c r="R2">
-        <v>1.591296199301552</v>
+        <v>16.098457660488</v>
       </c>
       <c r="S2">
-        <v>0.5505336160768758</v>
+        <v>0.2705857165916988</v>
       </c>
       <c r="T2">
-        <v>0.5505336160768758</v>
+        <v>0.2705857165916988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0917090572088195</v>
+        <v>0.098742</v>
       </c>
       <c r="H3">
-        <v>0.0917090572088195</v>
+        <v>0.296226</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4941333075334537</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4941333075334537</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.52537235595614</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N3">
-        <v>8.52537235595614</v>
+        <v>25.865738</v>
       </c>
       <c r="O3">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="P3">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="Q3">
-        <v>0.7818538611188699</v>
+        <v>0.8513449005319998</v>
       </c>
       <c r="R3">
-        <v>0.7818538611188699</v>
+        <v>7.662104104787999</v>
       </c>
       <c r="S3">
-        <v>0.2704944771403119</v>
+        <v>0.1287859976103704</v>
       </c>
       <c r="T3">
-        <v>0.2704944771403119</v>
+        <v>0.1287859976103704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0917090572088195</v>
+        <v>0.098742</v>
       </c>
       <c r="H4">
-        <v>0.0917090572088195</v>
+        <v>0.296226</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4941333075334537</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4941333075334537</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.88344134266239</v>
+        <v>3.165745</v>
       </c>
       <c r="N4">
-        <v>2.88344134266239</v>
+        <v>9.497235</v>
       </c>
       <c r="O4">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="P4">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="Q4">
-        <v>0.2644376870525004</v>
+        <v>0.31259199279</v>
       </c>
       <c r="R4">
-        <v>0.2644376870525004</v>
+        <v>2.81332793511</v>
       </c>
       <c r="S4">
-        <v>0.09148632174444751</v>
+        <v>0.04728691228586351</v>
       </c>
       <c r="T4">
-        <v>0.09148632174444751</v>
+        <v>0.04728691228586351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.098742</v>
+      </c>
+      <c r="H5">
+        <v>0.296226</v>
+      </c>
+      <c r="I5">
+        <v>0.4941333075334537</v>
+      </c>
+      <c r="J5">
+        <v>0.4941333075334537</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.178315666666667</v>
+      </c>
+      <c r="N5">
+        <v>9.534947000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.09607666660338771</v>
+      </c>
+      <c r="P5">
+        <v>0.09607666660338772</v>
+      </c>
+      <c r="Q5">
+        <v>0.313833245558</v>
+      </c>
+      <c r="R5">
+        <v>2.824499210022</v>
+      </c>
+      <c r="S5">
+        <v>0.04747468104552088</v>
+      </c>
+      <c r="T5">
+        <v>0.04747468104552088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1010866666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.30326</v>
+      </c>
+      <c r="I6">
+        <v>0.5058666924665464</v>
+      </c>
+      <c r="J6">
+        <v>0.5058666924665465</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>18.11506266666667</v>
+      </c>
+      <c r="N6">
+        <v>54.345188</v>
+      </c>
+      <c r="O6">
+        <v>0.5475965948184532</v>
+      </c>
+      <c r="P6">
+        <v>0.5475965948184532</v>
+      </c>
+      <c r="Q6">
+        <v>1.831191301431111</v>
+      </c>
+      <c r="R6">
+        <v>16.48072171288</v>
+      </c>
+      <c r="S6">
+        <v>0.2770108782267545</v>
+      </c>
+      <c r="T6">
+        <v>0.2770108782267545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1010866666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.30326</v>
+      </c>
+      <c r="I7">
+        <v>0.5058666924665464</v>
+      </c>
+      <c r="J7">
+        <v>0.5058666924665465</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.621912666666665</v>
+      </c>
+      <c r="N7">
+        <v>25.865738</v>
+      </c>
+      <c r="O7">
+        <v>0.2606300681353106</v>
+      </c>
+      <c r="P7">
+        <v>0.2606300681353106</v>
+      </c>
+      <c r="Q7">
+        <v>0.8715604117644443</v>
+      </c>
+      <c r="R7">
+        <v>7.84404370588</v>
+      </c>
+      <c r="S7">
+        <v>0.1318440705249402</v>
+      </c>
+      <c r="T7">
+        <v>0.1318440705249402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.0917090572088195</v>
-      </c>
-      <c r="H5">
-        <v>0.0917090572088195</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.75734719657081</v>
-      </c>
-      <c r="N5">
-        <v>2.75734719657081</v>
-      </c>
-      <c r="O5">
-        <v>0.08748558503836487</v>
-      </c>
-      <c r="P5">
-        <v>0.08748558503836487</v>
-      </c>
-      <c r="Q5">
-        <v>0.2528737117948905</v>
-      </c>
-      <c r="R5">
-        <v>0.2528737117948905</v>
-      </c>
-      <c r="S5">
-        <v>0.08748558503836487</v>
-      </c>
-      <c r="T5">
-        <v>0.08748558503836487</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1010866666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.30326</v>
+      </c>
+      <c r="I8">
+        <v>0.5058666924665464</v>
+      </c>
+      <c r="J8">
+        <v>0.5058666924665465</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.165745</v>
+      </c>
+      <c r="N8">
+        <v>9.497235</v>
+      </c>
+      <c r="O8">
+        <v>0.09569667044284827</v>
+      </c>
+      <c r="P8">
+        <v>0.09569667044284827</v>
+      </c>
+      <c r="Q8">
+        <v>0.3200146095666667</v>
+      </c>
+      <c r="R8">
+        <v>2.8801314861</v>
+      </c>
+      <c r="S8">
+        <v>0.04840975815698476</v>
+      </c>
+      <c r="T8">
+        <v>0.04840975815698478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1010866666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.30326</v>
+      </c>
+      <c r="I9">
+        <v>0.5058666924665464</v>
+      </c>
+      <c r="J9">
+        <v>0.5058666924665465</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.178315666666667</v>
+      </c>
+      <c r="N9">
+        <v>9.534947000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.09607666660338771</v>
+      </c>
+      <c r="P9">
+        <v>0.09607666660338772</v>
+      </c>
+      <c r="Q9">
+        <v>0.3212853363577778</v>
+      </c>
+      <c r="R9">
+        <v>2.89156802722</v>
+      </c>
+      <c r="S9">
+        <v>0.04860198555786684</v>
+      </c>
+      <c r="T9">
+        <v>0.04860198555786685</v>
       </c>
     </row>
   </sheetData>
